--- a/challenge/MusicGenreClassification/Exps.xlsx
+++ b/challenge/MusicGenreClassification/Exps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3rd\ML\SGU25-Basic-ML\MusicGenreClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA25B137-1D40-462E-99B0-76B040C4B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382F120-6A65-4A63-A17D-73477B7168CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDD94E43-75D6-48D1-B4BD-E57EC3AA804D}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{CDD94E43-75D6-48D1-B4BD-E57EC3AA804D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -44,26 +44,41 @@
     <t>Kaggle Score</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>Noted</t>
   </si>
   <si>
-    <t>Submission</t>
-  </si>
-  <si>
     <t>MusicGenre</t>
+  </si>
+  <si>
+    <t>ex1_model</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>XBG Classifier</t>
+  </si>
+  <si>
+    <t>Stacking 3 above</t>
+  </si>
+  <si>
+    <t>Bỏ qua Artist Name và Track name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +132,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,12 +226,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +282,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -589,7 +624,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,132 +633,150 @@
     <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="27.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="47" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>45759</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="22"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.53610999999999998</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.54259000000000002</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/challenge/MusicGenreClassification/Exps.xlsx
+++ b/challenge/MusicGenreClassification/Exps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3rd\ML\SGU25-Basic-ML\MusicGenreClassification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3rd\ML\sgu2025-2026_ML_basic_nhom3changlinhngulam\challenge\MusicGenreClassification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382F120-6A65-4A63-A17D-73477B7168CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD869594-37A4-42E8-AF99-EC1B3E73BE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{CDD94E43-75D6-48D1-B4BD-E57EC3AA804D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -72,13 +72,19 @@
   </si>
   <si>
     <t>Bỏ qua Artist Name và Track name</t>
+  </si>
+  <si>
+    <t>Default model</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,16 +157,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,43 +201,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -237,13 +218,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -255,36 +229,37 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -621,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5144BD18-B6E8-4F53-8753-F1152E2A01F4}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,15 +607,15 @@
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,18 +628,24 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>45759</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -673,110 +654,139 @@
       <c r="D2" s="5">
         <v>0.53332999999999997</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="14">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G2" s="24">
         <v>0.53320000000000001</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="18"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="E3" s="25">
+        <v>0.53610999999999998</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G3" s="12">
         <v>0.54520000000000002</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>0.53610999999999998</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="14">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.5655</v>
+      </c>
+      <c r="G4" s="12">
         <v>0.53669999999999995</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>0.54259000000000002</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="H2:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
